--- a/PCB/Parts_List_v00.xlsx
+++ b/PCB/Parts_List_v00.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\AcceLog\PCB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="391"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Parts List" sheetId="1" r:id="rId1"/>
+    <sheet name="EAGLE Export" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts List'!$A$1:$H$22</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="165">
   <si>
     <t>Component</t>
   </si>
@@ -102,16 +108,427 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/10118193-0001LF/609-4616-1-ND/2785380</t>
+  </si>
+  <si>
+    <t>Cap 0603</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheet</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CAP0603-CAP</t>
+  </si>
+  <si>
+    <t>0603-CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SparkFun-Passives   1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CAP_POL1206</t>
+  </si>
+  <si>
+    <t>EIA3216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SparkFun-Capacitors 1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   100nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.7uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47pF</t>
+  </si>
+  <si>
+    <t>CAP0603-CAP</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18pF</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100nF</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CPOL-USE2-5</t>
+  </si>
+  <si>
+    <t>E2-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcl</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SparkFun-Connectors 1</t>
+  </si>
+  <si>
+    <t>JACCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   M08LOCK</t>
+  </si>
+  <si>
+    <t>1X08_LOCK</t>
+  </si>
+  <si>
+    <t>SparkFun-Connectors 1</t>
+  </si>
+  <si>
+    <t>JFTDI</t>
+  </si>
+  <si>
+    <t>M06LOCK</t>
+  </si>
+  <si>
+    <t>1X06_LOCK</t>
+  </si>
+  <si>
+    <t>JUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MicroUSB</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RESISTOR0603-RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0603-RES</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10K?</t>
+  </si>
+  <si>
+    <t>RESISTOR0603-RES</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MMA8452Q</t>
+  </si>
+  <si>
+    <t>MMA8452Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   QFN-16_0.5MM SparkFun-Sensors</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FTS31XS-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FT231XS</t>
+  </si>
+  <si>
+    <t>SSOP20_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SparkFun-DigitalIC  1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TQFP32-08</t>
+  </si>
+  <si>
+    <t>SparkFun-DigitalIC  1</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.3V/150mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  V_REG_MIC52053.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SparkFun-PowerIC</t>
+  </si>
+  <si>
+    <t>XTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABLS7M2</t>
+  </si>
+  <si>
+    <t>ABLS7M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AcceLogLib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ATMEGA328P_TQFP</t>
+  </si>
+  <si>
+    <t>ATMEGA328P_TQFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SparkFun-Passives</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>Cap 1206</t>
+  </si>
+  <si>
+    <t>2.2uF Tantalum</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/T491A225K016ZT/495-2228-1-ND/770394</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>2X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M03X22X3_SILK_MALE_PTH</t>
+  </si>
+  <si>
+    <t>Cap 5mm</t>
+  </si>
+  <si>
+    <t>2x3 male hdr</t>
+  </si>
+  <si>
+    <t>male hdr</t>
+  </si>
+  <si>
+    <t>male ang hdr</t>
+  </si>
+  <si>
+    <t>27 Ohm</t>
+  </si>
+  <si>
+    <t>Voltage Reg</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Res 0603</t>
+  </si>
+  <si>
+    <t>10 kOhm</t>
+  </si>
+  <si>
+    <t>FTS31XS-U</t>
+  </si>
+  <si>
+    <t>3.3V/150mA</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>495-2228-1-ND</t>
+  </si>
+  <si>
+    <t>399-1052-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C0603C180J5GACTU/399-1052-1-ND/411327</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C0603C470J3GACTU/399-9083-1-ND/3522600</t>
+  </si>
+  <si>
+    <t>Qty Order</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CL10B475KQ8NQNC/1276-2087-1-ND/3890173</t>
+  </si>
+  <si>
+    <t>1276-2087-1-ND</t>
+  </si>
+  <si>
+    <t>399-9083-1-ND</t>
+  </si>
+  <si>
+    <t>399-1096-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C0603C104K4RACTU/399-1096-1-ND/411371</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PREC040SAAN-RC/S1012EC-40-ND/2774814</t>
+  </si>
+  <si>
+    <t>S1012EC-40-ND</t>
+  </si>
+  <si>
+    <t>40 pin breakaway</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PREC040SBAN-M71RC/S1112EC-40-ND/2774894</t>
+  </si>
+  <si>
+    <t>S1112EC-40-ND</t>
+  </si>
+  <si>
+    <t>952-2121-ND</t>
+  </si>
+  <si>
+    <t>6 pos 2 row</t>
+  </si>
+  <si>
+    <t>311-27GRCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC0603JR-0727RL/311-27GRCT-ND/729698</t>
+  </si>
+  <si>
+    <t>311-10KGRCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC0603JR-0710KL/311-10KGRCT-ND/729647</t>
+  </si>
+  <si>
+    <t>768-1156-5-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/FT231XS-U/768-1156-5-ND/3749471</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MMA8451QR1/MMA8451QR1CT-ND/3524270</t>
+  </si>
+  <si>
+    <t>MMA8451QR1CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/TLV71333PDBVR/296-35591-1-ND/3830056</t>
+  </si>
+  <si>
+    <t>296-35591-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ATMEGA328P-AU/ATMEGA328P-AU-ND/1832260</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AU-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,20 +538,9 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -147,6 +553,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +588,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -165,94 +596,330 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.93877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2"/>
+    <col min="3" max="3" width="17.7109375"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="8"/>
+    <col min="8" max="8" width="72.5703125"/>
+    <col min="9" max="1027" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -265,142 +932,1129 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
         <v>0.38</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="G5" s="8">
         <v>0.27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="G6" s="8">
         <v>0.38</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="G7" s="8">
         <v>0.96</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
         <v>0.46</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F7"/>
+  <autoFilter ref="A1:H22">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://www.digikey.com/product-detail/en/ABLS7M2-16.000MHZ-D-2Y-T/535-12830-1-ND/5135076"/>
-    <hyperlink ref="F4" r:id="rId2" display="http://www.digikey.com/product-search/en?FV=fff4000d%2Cfff8016d%2C1c0002%2C1c0003%2C1c0006%2C1c0011%2C1c00c5%2C1140003%2C22c0011&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=1&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://www.digikey.com/product-detail/en/ABLS-16.000MHZ-B4-T/535-10226-1-ND/2184261"/>
-    <hyperlink ref="F6" r:id="rId4" display="http://www.digikey.com/product-detail/en/AWSCR-16.00CV-T/535-10008-1-ND/2001631"/>
-    <hyperlink ref="F7" r:id="rId5" display="http://www.digikey.com/product-detail/en/501BAA16M0000DAF/336-2902-ND/4582012"/>
-    <hyperlink ref="F8" r:id="rId6" display="http://www.digikey.com/product-detail/en/10118193-0001LF/609-4616-1-ND/2785380"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H13" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H11" r:id="rId9"/>
+    <hyperlink ref="H9" r:id="rId10"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView windowProtection="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>10118193</v>
+      </c>
+      <c r="C22">
+        <v>10118193</v>
+      </c>
+      <c r="D22">
+        <v>10118193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>